--- a/Models/Industry_model/Input/Steel/Data/parameters.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/parameters.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Industry_model/Input/Steel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C73669-4D5D-BA49-A42D-BFE97AD4A7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74A8564-096E-1743-BD0D-BA02731C0842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2340" windowWidth="20340" windowHeight="12180" activeTab="2" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
+    <workbookView xWindow="2300" yWindow="1900" windowWidth="20340" windowHeight="12180" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
   </bookViews>
   <sheets>
     <sheet name="TECHNOLOGIES" sheetId="1" r:id="rId1"/>
-    <sheet name="RESSOURCE" sheetId="2" r:id="rId2"/>
+    <sheet name="RESOURCE" sheetId="2" r:id="rId2"/>
     <sheet name="TECHNOLOGIES_RESOURCE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Scrap</t>
   </si>
@@ -76,9 +76,6 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>Emissions</t>
-  </si>
-  <si>
     <t>capex</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>CRF</t>
   </si>
   <si>
-    <t>flow_cost</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>RESSOURCE</t>
-  </si>
-  <si>
     <t>Steel</t>
   </si>
   <si>
@@ -164,6 +155,21 @@
   </si>
   <si>
     <t>Methanisation</t>
+  </si>
+  <si>
+    <t>RESOURCE</t>
+  </si>
+  <si>
+    <t>Emissions_t</t>
+  </si>
+  <si>
+    <t>Emissions_r</t>
+  </si>
+  <si>
+    <t>flow_cost_r</t>
+  </si>
+  <si>
+    <t>flow_cost_t</t>
   </si>
 </sst>
 </file>
@@ -191,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +243,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -335,6 +353,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC0513-801E-2542-89D6-117D6191FB3E}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,31 +688,31 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -744,7 +767,7 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -817,7 +840,7 @@
         <v>0.34</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -913,18 +936,21 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
       <c r="G12">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -932,7 +958,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>12.13</v>
@@ -955,7 +981,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -972,7 +998,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="12">
         <f>0.000001*-84*14500</f>
@@ -989,7 +1015,7 @@
         <v>860000</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1065,31 +1091,31 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="12">
         <f>29308*0.00001621</f>
@@ -1105,7 +1131,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="12">
         <f>0.000001*9*16900</f>
@@ -1120,7 +1146,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="12">
         <f>41816*0.0000136</f>
@@ -1136,7 +1162,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="12">
         <v>0.06</v>
@@ -1150,7 +1176,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="12">
         <f>45998*0.0000097</f>
@@ -1179,7 +1205,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="23">
         <v>0</v>
@@ -1193,7 +1219,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="23">
         <v>0</v>
@@ -1207,7 +1233,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="22">
         <v>0</v>
@@ -1221,7 +1247,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1235,7 +1261,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1249,7 +1275,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1270,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECC86B-EA41-AD43-AFC8-B7990C2DC2F5}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,142 +1306,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3">
+        <v>0.76</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1.9E-2</v>
-      </c>
-      <c r="M2">
+      <c r="F4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I4">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4.45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4">
+        <v>55</v>
+      </c>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>0.004</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9">
+        <v>4.7656761603050032E-2</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.53336811799229455</v>
+      </c>
+      <c r="E10">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F10">
+        <v>1.6199870401036789E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.45336290029345033</v>
+      </c>
+      <c r="E11">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.6199870401036789E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.8334529055985125E-2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.24762981812463489</v>
+      </c>
+      <c r="C12">
+        <v>0.42682158542731652</v>
+      </c>
+      <c r="E12">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.6199870401036789E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>0.76</v>
-      </c>
-      <c r="I13">
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="F13">
+        <v>1.6199870401036789E-2</v>
+      </c>
+      <c r="K13" s="8">
         <v>-1</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>1.26</v>
       </c>
       <c r="F14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I14">
+        <v>1.6199870401036789E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+      <c r="K14" s="8">
         <v>-1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>1.26</v>
+      </c>
+      <c r="F15">
+        <v>0.1852270896118545</v>
+      </c>
+      <c r="K15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>42</v>
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0.19192346461228307</v>
+      </c>
+      <c r="E16">
+        <v>1.327</v>
+      </c>
+      <c r="F16">
+        <v>1.6199870401036789E-2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>0.12848432777391336</v>
+      </c>
+      <c r="E17">
+        <v>1.327</v>
       </c>
       <c r="F17">
+        <v>1.6199870401036789E-2</v>
+      </c>
+      <c r="K17" s="8">
         <v>-1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Industry_model/Input/Steel/Data/parameters.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/parameters.xlsx
@@ -1,41 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Industry_model/Input/Steel/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\1ère année\Optim modelling\Project\Etude_TP_CapaExpPlaning-Python\Models\Industry_model\Input\Steel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74A8564-096E-1743-BD0D-BA02731C0842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35760E5C-5FBD-4D0E-8888-C65252C1FAF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="1900" windowWidth="20340" windowHeight="12180" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
+    <workbookView xWindow="2295" yWindow="1905" windowWidth="20340" windowHeight="12180" activeTab="2" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
   </bookViews>
   <sheets>
     <sheet name="TECHNOLOGIES" sheetId="1" r:id="rId1"/>
     <sheet name="RESOURCE" sheetId="2" r:id="rId2"/>
     <sheet name="TECHNOLOGIES_RESOURCE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Scrap</t>
   </si>
@@ -136,21 +128,9 @@
     <t>output</t>
   </si>
   <si>
-    <t>Forced_prod_ratio</t>
-  </si>
-  <si>
-    <t>Max_capacity_t</t>
-  </si>
-  <si>
-    <t>Forced_resource</t>
-  </si>
-  <si>
     <t>steel</t>
   </si>
   <si>
-    <t>Max_volume</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
@@ -160,25 +140,42 @@
     <t>RESOURCE</t>
   </si>
   <si>
-    <t>Emissions_t</t>
-  </si>
-  <si>
-    <t>Emissions_r</t>
-  </si>
-  <si>
     <t>flow_cost_r</t>
   </si>
   <si>
     <t>flow_cost_t</t>
+  </si>
+  <si>
+    <t>emissions_t</t>
+  </si>
+  <si>
+    <t>emissions_r</t>
+  </si>
+  <si>
+    <t>forced_prod_ratio</t>
+  </si>
+  <si>
+    <t>max_capacity_t</t>
+  </si>
+  <si>
+    <t>production_error_margin</t>
+  </si>
+  <si>
+    <t>max_volume</t>
+  </si>
+  <si>
+    <t>forced_resource</t>
+  </si>
+  <si>
+    <t>rajouté</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -197,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,12 +228,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,38 +317,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,23 +655,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC0513-801E-2542-89D6-117D6191FB3E}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
@@ -703,30 +688,30 @@
         <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2">
         <v>180</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,11 +721,11 @@
       <c r="G3">
         <v>114</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -762,15 +747,15 @@
       <c r="G4">
         <v>53.2</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0.66</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" s="7"/>
+      <c r="J4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,9 +777,9 @@
       <c r="G5">
         <v>53.2</v>
       </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,7 +802,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,14 +821,14 @@
       <c r="G7">
         <v>53.2</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="16">
         <v>0.34</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,7 +848,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -886,7 +871,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,7 +894,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,7 +917,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -943,12 +928,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -956,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -979,7 +964,7 @@
         <v>324.97573965832413</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -996,11 +981,11 @@
         <v>0.16274539488251155</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="12">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="10">
         <f>0.000001*-84*14500</f>
         <v>-1.218</v>
       </c>
@@ -1015,71 +1000,8 @@
         <v>860000</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1088,36 +1010,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586E3A9-C0EE-6F42-8EFF-5D7691C2A1FF}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <f>29308*0.00001621</f>
         <v>0.47508267999999998</v>
       </c>
@@ -1129,26 +1054,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <f>0.000001*9*16900</f>
         <v>0.15210000000000001</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>400</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <f>41816*0.0000136</f>
         <v>0.56869760000000003</v>
       </c>
@@ -1160,11 +1085,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>0.06</v>
       </c>
       <c r="C5" s="4">
@@ -1174,22 +1099,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <f>45998*0.0000097</f>
         <v>0.44618060000000004</v>
       </c>
       <c r="C6" s="4">
         <v>291.66900000000004</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1203,84 +1128,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="23">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
         <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
         <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="22">
-        <v>0</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
         <v>1.5</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="15">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>180</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>114</v>
       </c>
       <c r="D13">
@@ -1296,66 +1221,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECC86B-EA41-AD43-AFC8-B7990C2DC2F5}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E3">
@@ -1365,8 +1290,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F4">
@@ -1376,8 +1301,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="4">
@@ -1387,24 +1312,24 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="4">
         <v>55</v>
       </c>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>39</v>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1344,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1358,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1446,14 +1371,14 @@
       <c r="F10">
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>-1</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1469,14 +1394,14 @@
       <c r="H11">
         <v>1.8334529055985125E-2</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>-1</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1492,14 +1417,14 @@
       <c r="F12">
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>-1</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1509,15 +1434,15 @@
       <c r="F13">
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>-1</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1530,14 +1455,14 @@
       <c r="H14">
         <v>0.05</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>-1</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1547,14 +1472,14 @@
       <c r="F15">
         <v>0.1852270896118545</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>-1</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1567,14 +1492,14 @@
       <c r="F16">
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>-1</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1587,10 +1512,10 @@
       <c r="F17">
         <v>1.6199870401036789E-2</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>-1</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>1</v>
       </c>
     </row>

--- a/Models/Industry_model/Input/Steel/Data/parameters.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/parameters.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\1ère année\Optim modelling\Project\Etude_TP_CapaExpPlaning-Python\Models\Industry_model\Input\Steel\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Industry_model/Input/Steel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35760E5C-5FBD-4D0E-8888-C65252C1FAF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B879D-21DC-F94E-9919-3B6ED2B7A6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1905" windowWidth="20340" windowHeight="12180" activeTab="2" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
+    <workbookView xWindow="2300" yWindow="1900" windowWidth="20340" windowHeight="12180" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
   </bookViews>
   <sheets>
     <sheet name="TECHNOLOGIES" sheetId="1" r:id="rId1"/>
-    <sheet name="RESOURCE" sheetId="2" r:id="rId2"/>
-    <sheet name="TECHNOLOGIES_RESOURCE" sheetId="3" r:id="rId3"/>
+    <sheet name="RESOURCES" sheetId="2" r:id="rId2"/>
+    <sheet name="TECHNOLOGIES_RESOURCES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -137,9 +145,6 @@
     <t>Methanisation</t>
   </si>
   <si>
-    <t>RESOURCE</t>
-  </si>
-  <si>
     <t>flow_cost_r</t>
   </si>
   <si>
@@ -168,6 +173,9 @@
   </si>
   <si>
     <t>rajouté</t>
+  </si>
+  <si>
+    <t>RESOURCES</t>
   </si>
 </sst>
 </file>
@@ -657,23 +665,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC0513-801E-2542-89D6-117D6191FB3E}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
@@ -688,19 +696,19 @@
         <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +719,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,7 +733,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -755,7 +763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,7 +787,7 @@
       </c>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,7 +810,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,7 +836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +856,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -871,7 +879,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,7 +902,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -917,7 +925,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -928,12 +936,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -941,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -964,7 +972,7 @@
         <v>324.97573965832413</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -981,7 +989,7 @@
         <v>0.16274539488251155</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
@@ -1012,33 +1020,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586E3A9-C0EE-6F42-8EFF-5D7691C2A1FF}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1111,10 +1117,10 @@
         <v>291.66900000000004</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
@@ -1221,16 +1227,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CECC86B-EA41-AD43-AFC8-B7990C2DC2F5}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
@@ -1321,7 +1327,7 @@
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>35</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>

--- a/Models/Industry_model/Input/Steel/Data/parameters.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Industry_model/Input/Steel/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\1ère année\Optim modelling\Project\Etude_TP_CapaExpPlaning-Python\Models\Industry_model\Input\Steel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B879D-21DC-F94E-9919-3B6ED2B7A6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5295C45C-994C-4C20-B7B0-289AA312285B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="1900" windowWidth="20340" windowHeight="12180" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
+    <workbookView xWindow="2295" yWindow="1905" windowWidth="20340" windowHeight="12180" activeTab="1" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
   </bookViews>
   <sheets>
     <sheet name="TECHNOLOGIES" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Scrap</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>forced_resource</t>
-  </si>
-  <si>
-    <t>rajouté</t>
   </si>
   <si>
     <t>RESOURCES</t>
@@ -665,18 +662,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC0513-801E-2542-89D6-117D6191FB3E}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -708,7 +705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +716,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -733,7 +730,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -763,7 +760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,7 +784,7 @@
       </c>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,7 +807,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,7 +833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,7 +853,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,7 +876,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,7 +899,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,7 +922,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -936,12 +933,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -949,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -972,7 +969,7 @@
         <v>324.97573965832413</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -989,7 +986,7 @@
         <v>0.16274539488251155</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
@@ -1020,13 +1017,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586E3A9-C0EE-6F42-8EFF-5D7691C2A1FF}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>39</v>
@@ -1044,7 +1043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1116,11 +1115,8 @@
       <c r="C6" s="4">
         <v>291.66900000000004</v>
       </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -1148,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
@@ -1162,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1176,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -1190,7 +1186,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
@@ -1231,12 +1227,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -1285,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
@@ -1296,7 +1292,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1303,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1318,7 +1314,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
@@ -1327,7 +1323,7 @@
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>35</v>
       </c>
@@ -1335,7 +1331,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1346,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1360,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1407,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1485,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1505,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>

--- a/Models/Industry_model/Input/Steel/Data/parameters.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Industry_model/Input/Steel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8DE5E9-6BF6-404C-999D-2D9071F17AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AD0E3-3502-A44A-9C3D-476B4FE75E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2580" windowWidth="23740" windowHeight="11760" activeTab="1" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
+    <workbookView xWindow="5060" yWindow="500" windowWidth="23740" windowHeight="11760" activeTab="1" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
   </bookViews>
   <sheets>
     <sheet name="TECHNOLOGIES" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,6 +1178,9 @@
       </c>
       <c r="D11">
         <v>15000000</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1218,7 +1221,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="K10" sqref="K10:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Models/Industry_model/Input/Steel/Data/parameters.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Industry_model/Input/Steel/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\1ère année\Optim modelling\Project\Etude_TP_CapaExpPlaning-Python\Models\Industry_model\Input\Steel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AD0E3-3502-A44A-9C3D-476B4FE75E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2523425-693F-4A1A-927C-B422826AD52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="500" windowWidth="23740" windowHeight="11760" activeTab="1" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
+    <workbookView xWindow="5052" yWindow="492" windowWidth="23748" windowHeight="11760" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
   </bookViews>
   <sheets>
     <sheet name="TECHNOLOGIES" sheetId="1" r:id="rId1"/>
@@ -22,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Scrap</t>
   </si>
@@ -167,6 +159,9 @@
   </si>
   <si>
     <t>RESOURCES</t>
+  </si>
+  <si>
+    <t>is_product</t>
   </si>
 </sst>
 </file>
@@ -316,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -340,6 +335,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,18 +653,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC0513-801E-2542-89D6-117D6191FB3E}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -699,7 +696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +707,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -724,7 +721,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -746,15 +743,8 @@
       <c r="G4">
         <v>53.2</v>
       </c>
-      <c r="H4" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,9 +766,15 @@
       <c r="G5">
         <v>53.2</v>
       </c>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,7 +797,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,7 +823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +843,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,7 +866,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,7 +889,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -916,7 +912,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -924,23 +920,29 @@
         <v>-1</v>
       </c>
       <c r="G12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -948,7 +950,7 @@
         <v>12.13</v>
       </c>
       <c r="C15">
-        <v>3448.3536819299948</v>
+        <v>1800</v>
       </c>
       <c r="D15">
         <v>25</v>
@@ -963,12 +965,12 @@
         <v>324.97573965832413</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -980,7 +982,7 @@
         <v>0.16274539488251155</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -1009,15 +1011,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586E3A9-C0EE-6F42-8EFF-5D7691C2A1FF}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -1027,17 +1029,20 @@
       <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1049,11 +1054,14 @@
         <f>250*0.95</f>
         <v>237.5</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1064,11 +1072,14 @@
       <c r="C3" s="8">
         <v>400</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1080,11 +1091,14 @@
         <f>60*17.8</f>
         <v>1068</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1094,11 +1108,14 @@
       <c r="C5" s="4">
         <v>60</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1109,8 +1126,11 @@
       <c r="C6" s="4">
         <v>291.66900000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1118,13 +1138,16 @@
         <v>-1</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -1132,13 +1155,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
@@ -1146,13 +1172,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1162,11 +1191,14 @@
       <c r="C10" s="13">
         <v>1.5</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -1174,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>15000000</v>
       </c>
-      <c r="F11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -1191,13 +1223,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
@@ -1205,9 +1240,12 @@
         <v>0</v>
       </c>
       <c r="C13" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
@@ -1221,15 +1259,15 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1270,7 +1308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
@@ -1288,8 +1326,11 @@
       <c r="I3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -1299,28 +1340,37 @@
       <c r="I4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="4">
         <v>3.04</v>
       </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
       <c r="I5" s="4">
         <v>4.45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
+      <c r="E6">
+        <v>55</v>
+      </c>
       <c r="H6" s="4">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>33</v>
       </c>
@@ -1328,7 +1378,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1393,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1407,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1377,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1400,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1441,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>

--- a/Models/Industry_model/Input/Steel/Data/parameters.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\1ère année\Optim modelling\Project\Etude_TP_CapaExpPlaning-Python\Models\Industry_model\Input\Steel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2523425-693F-4A1A-927C-B422826AD52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D44D933-E557-4A6D-9938-4E633D3E8360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5052" yWindow="492" windowWidth="23748" windowHeight="11760" xr2:uid="{72F20DD2-FD61-154B-B48D-F6B531A3694C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>Scrap</t>
   </si>
@@ -143,9 +143,6 @@
     <t>emissions_r</t>
   </si>
   <si>
-    <t>forced_prod_ratio</t>
-  </si>
-  <si>
     <t>max_capacity_t</t>
   </si>
   <si>
@@ -162,6 +159,12 @@
   </si>
   <si>
     <t>is_product</t>
+  </si>
+  <si>
+    <t>forced_prod_ratio_min</t>
+  </si>
+  <si>
+    <t>forced_prod_ratio_max</t>
   </si>
 </sst>
 </file>
@@ -651,20 +654,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC0513-801E-2542-89D6-117D6191FB3E}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="8" max="9" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -687,16 +690,19 @@
         <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,9 +711,10 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="7"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -719,9 +726,10 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="7"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -743,8 +751,18 @@
       <c r="G4">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,15 +784,8 @@
       <c r="G5">
         <v>53.2</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,7 +808,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,13 +828,16 @@
         <v>53.2</v>
       </c>
       <c r="H7" s="16">
-        <v>0.34</v>
-      </c>
-      <c r="J7" s="17" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,7 +857,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,7 +880,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,7 +903,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,7 +926,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -923,7 +937,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -931,7 +945,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -942,7 +956,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -965,7 +979,7 @@
         <v>324.97573965832413</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -982,7 +996,7 @@
         <v>0.16274539488251155</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -997,10 +1011,10 @@
         <f>49.2578*13</f>
         <v>640.35140000000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>860000</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1021,7 +1035,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>37</v>
@@ -1030,16 +1044,16 @@
         <v>34</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
